--- a/Original/CN/Game/List.xlsx
+++ b/Original/CN/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="441">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
   </si>
   <si>
-    <t xml:space="preserve">切り払い,切られた,切った,切られて</t>
+    <t xml:space="preserve">を切り払い,切られた,切った,切られて</t>
   </si>
   <si>
     <t xml:space="preserve">attackPierce</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">突き刺し,突き刺された,突きさした,突きさされて</t>
+    <t xml:space="preserve">を突き刺し,突き刺された,突きさした,突きさされて</t>
   </si>
   <si>
     <t xml:space="preserve">attackBlunt</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
   </si>
   <si>
-    <t xml:space="preserve">打って,打たれた,打った,打たれて</t>
+    <t xml:space="preserve">を打って,打たれた,打った,打たれて</t>
   </si>
   <si>
     <t xml:space="preserve">attackCane</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
+    <t xml:space="preserve">を魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
   </si>
   <si>
     <t xml:space="preserve">attackGun</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
   </si>
   <si>
-    <t xml:space="preserve">撃って,撃たれた,撃った,撃たれて</t>
+    <t xml:space="preserve">を撃って,撃たれた,撃った,撃たれて</t>
   </si>
   <si>
     <t xml:space="preserve">attackBow</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">射って,射たれた,射った,射られて</t>
+    <t xml:space="preserve">を射って,射たれた,射った,射られて</t>
   </si>
   <si>
     <t xml:space="preserve">attackPunch</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
   </si>
   <si>
-    <t xml:space="preserve">殴って,殴られた,殴った,殴られて,手</t>
+    <t xml:space="preserve">を殴って,殴られた,殴った,殴られて,手</t>
   </si>
   <si>
     <t xml:space="preserve">attackKick</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
   </si>
   <si>
-    <t xml:space="preserve">蹴って,蹴られた,蹴った,蹴られて,脚</t>
+    <t xml:space="preserve">を蹴って,蹴られた,蹴った,蹴られて,脚</t>
   </si>
   <si>
     <t xml:space="preserve">attackClaw</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
   </si>
   <si>
-    <t xml:space="preserve">引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
+    <t xml:space="preserve">を引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
   </si>
   <si>
     <t xml:space="preserve">attackBite</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
   </si>
   <si>
-    <t xml:space="preserve">噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
+    <t xml:space="preserve">に噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
   </si>
   <si>
     <t xml:space="preserve">attackSpore</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
   </si>
   <si>
-    <t xml:space="preserve">撫でて,撫でられた,撫でた,撫でられて,胞子</t>
+    <t xml:space="preserve">を撫でて,撫でられた,撫でた,撫でられて,胞子</t>
   </si>
   <si>
     <t xml:space="preserve">attackGaze</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
   </si>
   <si>
-    <t xml:space="preserve">睨んで,睨まれた,睨んだ,睨まれて,眼</t>
+    <t xml:space="preserve">を睨んで,睨まれた,睨んだ,睨まれて,眼</t>
   </si>
   <si>
     <t xml:space="preserve">attackSting</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
   </si>
   <si>
-    <t xml:space="preserve">刺し,刺された,刺した,刺されて,針</t>
+    <t xml:space="preserve">を刺し,刺された,刺した,刺されて,針</t>
   </si>
   <si>
     <t xml:space="preserve">attackTouch</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
   </si>
   <si>
-    <t xml:space="preserve">触って,触られた,触った,触られて,手</t>
+    <t xml:space="preserve">を触って,触られた,触った,触られて,手</t>
   </si>
   <si>
     <t xml:space="preserve">skillDiff</t>
@@ -845,12 +845,21 @@
     <t xml:space="preserve">quality_general</t>
   </si>
   <si>
-    <t xml:space="preserve">,quality ,pure ,fabled </t>
+    <t xml:space="preserve">,quality,pure,fabled </t>
   </si>
   <si>
     <t xml:space="preserve">,上質な,純粋な,幻の</t>
   </si>
   <si>
+    <t xml:space="preserve">quality_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,lively ,fabled ,legendary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,ぴちぴちの,幻の,伝説の</t>
+  </si>
+  <si>
     <t xml:space="preserve">work_lv</t>
   </si>
   <si>
@@ -992,13 +1001,7 @@
     <t xml:space="preserve">Alpha 19.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpha 20.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.113</t>
+    <t xml:space="preserve">EA 23.123</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.67</t>
@@ -1034,6 +1037,9 @@
     <t xml:space="preserve">EA 23.40</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.126</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.68</t>
   </si>
   <si>
@@ -1124,7 +1130,7 @@
     <t xml:space="preserve">咬了,咬了,咬了,咬了,牙</t>
   </si>
   <si>
-    <t xml:space="preserve">用胞子包裹了,撒了胞子,撒了胞子,撒了胞子,胞子</t>
+    <t xml:space="preserve">用孢子包裹了,撒了孢子,撒了孢子,撒了孢子,孢子</t>
   </si>
   <si>
     <t xml:space="preserve">瞪了,瞪了,瞪了,瞪了,眼</t>
@@ -1290,6 +1296,9 @@
   </si>
   <si>
     <t xml:space="preserve">,上等的,纯粹的,梦幻的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,活蹦乱跳的,梦幻的,传说的</t>
   </si>
   <si>
     <t xml:space="preserve">-,业余,新手,学徒,职业,专家,熟练者,大师,巨匠</t>
@@ -1430,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1443,11 +1452,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1461,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
@@ -1479,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
@@ -1497,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
@@ -1515,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
@@ -1533,11 +1542,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1551,11 +1560,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1569,11 +1578,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1587,13 +1596,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1607,11 +1616,11 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1625,13 +1634,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1645,13 +1654,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1665,13 +1674,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1685,13 +1694,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1705,13 +1714,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1725,13 +1734,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1745,13 +1754,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1765,13 +1774,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1785,13 +1794,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1805,13 +1814,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1825,13 +1834,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1845,13 +1854,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1865,13 +1874,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1885,13 +1894,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1905,13 +1914,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1925,13 +1934,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1945,13 +1954,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1965,13 +1974,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1985,13 +1994,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -2005,13 +2014,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2025,13 +2034,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2045,13 +2054,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2065,13 +2074,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2085,13 +2094,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2105,11 +2114,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2123,11 +2132,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2141,11 +2150,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2159,11 +2168,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2177,11 +2186,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2195,7 +2204,7 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
@@ -2213,11 +2222,11 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2231,7 +2240,7 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
@@ -2249,11 +2258,11 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2267,11 +2276,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2285,11 +2294,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2303,11 +2312,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2321,11 +2330,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2339,11 +2348,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2357,11 +2366,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2375,11 +2384,11 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2393,13 +2402,13 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2413,13 +2422,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2433,13 +2442,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2453,13 +2462,13 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C57" t="s">
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2473,13 +2482,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2493,13 +2502,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2513,13 +2522,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2533,13 +2542,13 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2553,13 +2562,13 @@
         <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2573,13 +2582,13 @@
         <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2593,13 +2602,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2613,13 +2622,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2633,13 +2642,13 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2653,13 +2662,13 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2673,13 +2682,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2693,13 +2702,13 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2713,13 +2722,13 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E70" t="s">
         <v>206</v>
@@ -2733,13 +2742,13 @@
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C71" t="s">
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -2753,13 +2762,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2773,13 +2782,13 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -2793,13 +2802,13 @@
         <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -2813,11 +2822,11 @@
         <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -2831,11 +2840,11 @@
         <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -2849,11 +2858,11 @@
         <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -2867,11 +2876,11 @@
         <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -2885,11 +2894,11 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -2903,11 +2912,11 @@
         <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -2921,11 +2930,11 @@
         <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -2939,11 +2948,11 @@
         <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -2957,7 +2966,7 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
@@ -2975,11 +2984,11 @@
         <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -2993,11 +3002,11 @@
         <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -3011,11 +3020,11 @@
         <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -3029,11 +3038,11 @@
         <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -3047,11 +3056,11 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3065,11 +3074,11 @@
         <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -3083,11 +3092,11 @@
         <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -3101,11 +3110,11 @@
         <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -3119,11 +3128,11 @@
         <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -3137,11 +3146,11 @@
         <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -3155,11 +3164,11 @@
         <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -3173,11 +3182,11 @@
         <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -3191,11 +3200,11 @@
         <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -3209,31 +3218,31 @@
         <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
-      </c>
-      <c r="C97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>430</v>
+      </c>
+      <c r="E97" t="s">
         <v>288</v>
       </c>
-      <c r="D97" t="s">
-        <v>428</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>289</v>
-      </c>
-      <c r="F97" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" t="s">
         <v>291</v>
       </c>
-      <c r="B98" t="s">
-        <v>330</v>
-      </c>
-      <c r="C98"/>
       <c r="D98" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E98" t="s">
         <v>292</v>
@@ -3247,11 +3256,11 @@
         <v>294</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E99" t="s">
         <v>295</v>
@@ -3265,11 +3274,11 @@
         <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
         <v>298</v>
@@ -3283,11 +3292,11 @@
         <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -3301,11 +3310,11 @@
         <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>
@@ -3319,11 +3328,11 @@
         <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E103" t="s">
         <v>307</v>
@@ -3337,11 +3346,11 @@
         <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
         <v>310</v>
@@ -3355,11 +3364,11 @@
         <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E105" t="s">
         <v>313</v>
@@ -3373,17 +3382,35 @@
         <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E106" t="s">
         <v>316</v>
       </c>
       <c r="F106" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" t="s">
+        <v>440</v>
+      </c>
+      <c r="E107" t="s">
+        <v>319</v>
+      </c>
+      <c r="F107" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/List.xlsx
+++ b/Original/CN/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="452">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,970 +38,1003 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a ,an </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthEng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring,Summer,Autumn,Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">春,夏,秋,冬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spr,Sum,Aut,Win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???,Female,Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???,女性,男性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genders_animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.,F.,M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中性,雌,雄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gendersDrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">girl,girl,boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女,女,男</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother,bro,lad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄さん,兄ちゃん,坊ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister,sis,las</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉さん,姉ちゃん,お嬢ちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random,Child,Youth,Grown Up,Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランダム,幼児,若者,大人,老人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...,Umimyaa,I can't sleep tonight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…,うみみゃぁ,今日は眠れないな,しくしく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomPotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spotted potion,cloudy potion,clear potion,murky potion,pale potion,gluey potion,bubbling potion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斑な液体,曇った液体,透明な液体,濁った液体,薄い液体,粘った液体,泡立った液体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomScroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old scroll,strange scroll,runic scroll,long scroll,ripped scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古びた巻物,怪しい巻物,ルーン文字の巻物,長い巻物,やぶれた巻物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicious book,thin book,light book,attractive book,flashy book,shining book,worrisome book,majestic book,heavy book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怪しい本,薄い本,軽い本,艶やかな本,派手な本,輝く本,気がかりな本,荘厳な本,重い本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomSpellBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old tome,strange tome,runic tome,thick tome,majestic tome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古びた魔法書,怪しい魔法書,ルーン文字の魔法書,厚い魔法書,威厳のある魔法書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomRod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short rod,long rod,crooked rod,thick rod,thin rod,heavy rod,odd rod,fancy rod,plain rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">短い杖,長い杖,曲がった杖,太い杖,細い杖,重い杖,奇妙な杖,派手な杖,地味な杖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomTrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謎の罠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk_snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*crunch*,*scritch*,*kisssh*,*thudd*,*clump*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ずぶっ*,*ズサッ*,*ズボ*,*ザシュ*,*ザク*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walk_storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*drip*,*sip*,*drizzle*,*splash*,*kissh*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*びしゃ*,*ザブッ*,*パシャッ*,*ざぶ*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ジャン♪*,*ジャジャン♪*,*ポロン♪*,*ジャカジャカ♪*,*ダーン♪*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvComparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overmatched,Formidable,Fair,Easy,Very easy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とてもかなわない,強敵,いい勝負,問題なし,雑魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSlash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を切り払い,切られた,切った,切られて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackPierce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を突き刺し,突き刺された,突きさした,突きさされて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBlunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を打って,打たれた,打った,打たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackCane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackGun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を撃って,撃たれた,撃った,撃たれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を射って,射たれた,射った,射られて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackPunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を殴って,殴られた,殴った,殴られて,手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackKick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を蹴って,蹴られた,蹴った,蹴られて,脚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackClaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackBite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">に噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSpore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を撫でて,撫でられた,撫でた,撫でられて,胞子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackGaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を睨んで,睨まれた,睨んだ,睨まれて,眼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackSting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を刺し,刺された,刺した,刺されて,針</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attackTouch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を触って,触られた,触った,触られて,手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillDiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy,Normal,Hard,Impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かんたん,普通,難しい,不可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enraged,Displeased,Sullen,Calm,Pleased,Delighted,Overjoyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激怒,不機嫌,不穏,平静,温和,上機嫌,満悦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平野</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Forest_cherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浜辺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雪原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone_R_Undersea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seabed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄ちゃん,お兄ちゃん♪,お兄ちゃーん,お兄ちゃん！,お兄ちゃん？,お兄ちゃん！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉ちゃん,お姉ちゃん♪,お姉ちゃーん,お姉ちゃん！,お姉ちゃん？,お姉ちゃん！？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qFriendHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquaintance,neighbor,friend,cat,dog,gluttonous sea lion,putit,coworker,chicken,pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知人,隣人,友達,猫,犬,大食いトド,プチ,仕事仲間,鶏,ペット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qFriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend,parent,lover,sister,brother,wife,boss,fiancee,sweetheart,mom,dad,cat,child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知人,親,恋人,姉,妹,兄,弟,妻,友人,上司,婚約者,愛人,ママ,パパ,猫,子供</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知り合い,どこかの富豪,貴族,商人,学者,冒険者,闇商人,売人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Normal,Strong,Superb,Immunity,Immunity+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,耐性,強い耐性,素晴らしい耐性,免疫,免疫+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistNeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,Weakness,Defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なし,弱点,致命的な弱点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a gender,,,List of genders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性別の選択,,,性別の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a class,,,List of classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスの選択,,,クラスの候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wRace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a race,,,List of races</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種族の選択,,,種族の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wAlias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an alias,,,List of aliases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異名の選択,,,異名の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wAge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an age range,,,List of age ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wStartMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a prologue,,,List of prologue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プロローグの選択,,,プロローグの候補</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wMoongate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a portal location,,,Location Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">転移先の選択,,,転移先の名前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wReturn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a return location,,,Location Name,Return level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wRuneMold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an enchantment to extract,,,Enchantment Name,Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抽出エンチャントの選択,,,エンチャントの名前,強度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wTrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訓練する技能の選択,,,技能の候補,消費プラチナ硬貨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wCraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a recipe,,,Recipe Name,Own,Craft Skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レシピの選択,,,製作物の名前,所有,製作スキル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleBuySlave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,仕事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleRevive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an ally to revive,,,Ally Name,Price,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,値段,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleCallReserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose an ally to recall,,,Ally Name,Interaction,Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,アクション,クラス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,Ally Name,Interaction,Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,仲間の名前,アクション,情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,Ally Name,Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,,,仲間の名前,ノート</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListPeopleBed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wBGMLot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a song,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音楽の選択,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wPlaylist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Playlist,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在のプレイリスト,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wPlaylist2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Songs in memory,,,Song Name,Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記憶の中の曲,,,曲名,アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wTravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a fast travel destination,,,Destination Name,Days,Req Ration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファストトラベル目的地の選択,,,目的地の名前,経過日,必要旅糧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayLuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タラバガニ,クロマグロ,イセエビ,ハマグリ,ウニ,ナマコ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dayLuck2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mew mew mew!,Mew mew!,Mewew.,Boring.,Beware!,(Pssst...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うみみゃぁあ！,うみゃあ！,うみみ,つまんない,気を付けてね！,（フシュー・・・）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daggerTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release them...!,Our swords...!,My sword...!,My friend...,My soul...,My pride...,Please... the sword...,We have been waiting for so long...,My sword that was bound by him...,My sword that was stolen by him...,My sword...,The sword...,You...set my sword free...?,Who is it...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解き放って…！,私たちの剣を…！,私の剣を…！,剣を…,私の友を…,私の魂を…,私の誇りを…,頼む…剣を…,この時をずっと待っていた…,奴に囚われた私の剣を…,奴に奪われた私の剣を…,剣を…,解放…してくれるのか…？,誰だ…？,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stupid,lame,cool,madam's favorite,bewitched,maniac,esteemed,magnificent,royal,masterpiece,heavenly,godly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愚かな,みすぼらしい,気になる,いい感じの,マダム殺しの,マニア向けの,尊い,凄く豪華な,王家御用達の,芸術的な,神々しい,世界最高の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancientbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voynich Manuscript,Dhol Chants,Ponape Scripture,Revelations of Glaaki,G'harne Fragments,Liber Damnatus,Book of Dzyan,Book of Eibon,Grand Grimoire,Celaeno Fragments,Necronomicon,The R'lyeh Text,Eltdown Shards,The Golden Bough,Apocalypse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヴォイニッチ写本,ドール賛歌,ポナペ教教典,グラーキ黙示録,グ＝ハーン断章,断罪の書,ドジアンの書,エイボンの書,大いなる教書,セラエノ断章,ネクロノミコン,ルルイエ異本,エルトダウン・シャールズ,金枝篇,終焉の書</t>
+  </si>
+  <si>
+    <t xml:space="preserve">music_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a waste of time.,Almost everyone ignores you.,You need to practice lot more.,You finish playing.,Not good.,People seem to like your performance.,Your performance is successful.,Wonderful!,Great performance.,A Legendary stage!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まるで駄目だ…,不評だった…,もっと練習しなくては…,演奏を終えた。,いまいちだ。,手ごたえがあった。,納得できる演奏ができた。,大盛況だ！,素晴らしい！,歴史に残る名演だ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_STR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mighty,Weakened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剛力,衰弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortified,Fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">堅牢,脆弱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_DEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile,Clumsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巧手,拙劣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keen Sense,Dull Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鋭敏,鈍化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_LER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlightened,Hindered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学力向上,学習困難</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_WIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unyielding,Subdued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不屈,屈服</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_MAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplified Magic,Drained Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力増幅,魔力減少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_CHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheerful,Gloom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陽気,陰気</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_LUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky,Jinxed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィーバー,ジンクス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buff_SPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haste,Slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加速,鈍足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude,normal,good,miracle,godly,special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗悪,普通,高品質,奇跡,神器,特別製</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarnished,Common Quality,Fair Quality,Fine Quality,Premium Quality,Royal Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">粗悪品,普通の出来,まあまあの出来,良い出来,高級品,極上品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,quality,pure,fabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,上質な,純粋な,幻の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,lively ,fabled ,legendary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,ぴちぴちの,幻の,伝説の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_lv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-,Amateur,Novice,Apprentice,Journeyman,Expert,Adept,Master,Grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-,へっぽこ,初心者,見習い,職人,専門家,熟練者,達人,巨匠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest,Low,Normal,High,Highest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最低,低い,普通,高い,最高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野原の一夜,野原の一夜 (冬)(テスト),洞窟で (テスト)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exhint_AM_Terrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrahint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guild_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novice,Apprentice,Journeyman,Adept,Expert,Master,Grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ノービス,アプレンティス,ジャーニーマン,アデプト,エキスパート,マスター,グランドマスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">超ミニに育った,小振りに育った,手ごろに育った,やや大きく育った,どでかく育った,かなり巨大に育った,化け物サイズに育った,人より大きく育った,伝説的サイズに育った,象より重く育った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">th,st,nd,rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly grown,Slightly fluffy,Almost fluffy,Fluffy,*Fluffy*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ,*ふさもこ*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search_words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bill,tax,trainer,guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請求書,納税箱,トレイナー,ガード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortuneroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose,3rd Prize,2nd Prize,1st Prize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハズレ,3等,2等,1等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp_templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novice Adventurer,Adventurer,Veteran Adventurer,Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駆け出し冒険者,冒険者,熟練冒険者,カスタム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp_titles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy Adventurer,Novice Adventurer,Adventurer,Veteran Adventurer,Legendary Adventurer,Mythical Adventurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レガシー冒険者,駆け出し冒険者,冒険者,熟練冒険者,伝説の冒険者,神話の冒険者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba～rrel♪,Barrel!,Barre~l!,Barrel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">た～る♪,たーる！,たーるっ,たる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.27 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.123</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
-    <t xml:space="preserve">a ,an </t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthEng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, December</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring,Summer,Autumn,Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">春,夏,秋,冬</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthShort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spr,Sum,Aut,Win</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???,Female,Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???,女性,男性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gendersDrama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">girl,girl,boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女,女,男</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brother,bro,lad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お兄さん,兄ちゃん,坊ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister,sis,las</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お姉さん,姉ちゃん,お嬢ちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random,Child,Youth,Grown Up,Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランダム,幼児,若者,大人,老人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastWords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...,Umimyaa,I can't sleep tonight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…,うみみゃぁ,今日は眠れないな,しくしく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomPotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spotted potion,cloudy potion,clear potion,murky potion,pale potion,gluey potion,bubbling potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斑な液体,曇った液体,透明な液体,濁った液体,薄い液体,粘った液体,泡立った液体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomScroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old scroll,strange scroll,runic scroll,long scroll,ripped scroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古びた巻物,怪しい巻物,ルーン文字の巻物,長い巻物,やぶれた巻物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspicious book,thin book,light book,attractive book,flashy book,shining book,worrisome book,majestic book,heavy book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">怪しい本,薄い本,軽い本,艶やかな本,派手な本,輝く本,気がかりな本,荘厳な本,重い本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomSpellBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old tome,strange tome,runic tome,thick tome,majestic tome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古びた魔法書,怪しい魔法書,ルーン文字の魔法書,厚い魔法書,威厳のある魔法書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomRod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short rod,long rod,crooked rod,thick rod,thin rod,heavy rod,odd rod,fancy rod,plain rod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">短い杖,長い杖,曲がった杖,太い杖,細い杖,重い杖,奇妙な杖,派手な杖,地味な杖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomTrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謎の罠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk_snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*crunch*,*scritch*,*kisssh*,*thudd*,*clump*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ずぶっ*,*ズサッ*,*ズボ*,*ザシュ*,*ザク*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walk_storm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*drip*,*sip*,*drizzle*,*splash*,*kissh*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*びしゃ*,*ザブッ*,*パシャッ*,*ざぶ*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*pling♪*,*zing♪*,*plunk♪*,*chika chika♪*,*ta ra ra♪*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ジャン♪*,*ジャジャン♪*,*ポロン♪*,*ジャカジャカ♪*,*ダーン♪*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvComparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overmatched,Formidable,Fair,Easy,Very easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とてもかなわない,強敵,いい勝負,問題なし,雑魚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSlash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slash(es),slash(es),slash(es),slash(es)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を切り払い,切られた,切った,切られて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackPierce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stab(s),stab(s),stab(s),stab(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を突き刺し,突き刺された,突きさした,突きさされて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBlunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smash(es),smash(es),smash(es),smash(es)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を打って,打たれた,打った,打たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackCane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zap(s),zap(s),zap(s),zap(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackGun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fire(s) at,fire(s) at,fire(s) at,fire(s) at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を撃って,撃たれた,撃った,撃たれて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shoot(s),shoot(s),shoot(s),shoot(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を射って,射たれた,射った,射られて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackPunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">punch(es),punch(es),punch(es),punch(es),hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を殴って,殴られた,殴った,殴られて,手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackKick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kick(s),kick(s),kick(s),kick(s),leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を蹴って,蹴られた,蹴った,蹴られて,脚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackClaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claw(s),claw(s),claw(s),claw(s),claw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackBite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bite(s),bite(s),bite(s),bite(s),fang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">に噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSpore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spread(s) spores at,spread(s) spores at,spread(s) spores at,spread(s) spores at,spores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を撫でて,撫でられた,撫でた,撫でられて,胞子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackGaze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaze(s),gaze(s),gaze(s),gaze(s),eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を睨んで,睨まれた,睨んだ,睨まれて,眼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackSting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sting(s),sting(s),sting(s),sting(s),needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を刺し,刺された,刺した,刺されて,針</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attackTouch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">touch(es),touch(es),touch(es),touch(es),hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">を触って,触られた,触った,触られて,手</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillDiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy,Normal,Hard,Impossible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かんたん,普通,難しい,不可能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enraged,Displeased,Sullen,Calm,Pleased,Delighted,Overjoyed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">激怒,不機嫌,不穏,平静,温和,上機嫌,満悦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Plain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平野</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">森</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浜辺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雪原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_R_Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rooms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">部屋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お兄ちゃん,お兄ちゃん♪,お兄ちゃーん,お兄ちゃん！,お兄ちゃん？,お兄ちゃん！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お姉ちゃん,お姉ちゃん♪,お姉ちゃーん,お姉ちゃん！,お姉ちゃん？,お姉ちゃん！？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qFriendHome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquaintance,neighbor,friend,cat,dog,gluttonous sea lion,putit,coworker,chicken,pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知人,隣人,友達,猫,犬,大食いトド,プチ,仕事仲間,鶏,ペット</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qFriend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend,parent,lover,sister,brother,wife,boss,fiancee,sweetheart,mom,dad,cat,child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知人,親,恋人,姉,妹,兄,弟,妻,友人,上司,婚約者,愛人,ママ,パパ,猫,子供</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qClient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">friend,tycoon,noble,merchant,scholar,adventurer,black marketer,dealer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知り合い,どこかの富豪,貴族,商人,学者,冒険者,闇商人,売人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Normal,Strong,Superb,Immunity,Immunity+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,耐性,強い耐性,素晴らしい耐性,免疫,免疫+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistNeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Weakness,Defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,弱点,致命的な弱点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wGender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a gender,,,List of genders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性別の選択,,,性別の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a class,,,List of classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クラスの選択,,,クラスの候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wRace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a race,,,List of races</t>
-  </si>
-  <si>
-    <t xml:space="preserve">種族の選択,,,種族の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wAlias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an alias,,,List of aliases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異名の選択,,,異名の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wAge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an age range,,,List of age ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wStartMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a prologue,,,List of prologue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プロローグの選択,,,プロローグの候補</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wMoongate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a portal location,,,Location Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">転移先の選択,,,転移先の名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wReturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a return location,,,Location Name,Return level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">帰還先の選択,,,帰還先の名前,帰還深層</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wRuneMold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an enchantment to extract,,,Enchantment Name,Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抽出エンチャントの選択,,,エンチャントの名前,強度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wTrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a skill to train,,,Skill Name,Platinum Coin Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">訓練する技能の選択,,,技能の候補,消費プラチナ硬貨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wCraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a recipe,,,Recipe Name,Own,Craft Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レシピの選択,,,製作物の名前,所有,製作スキル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleBuySlave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a slave,,,Creature Name,Price,Work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">売買する奴隷の選択,,,生物の名前,値段,仕事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleRevive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an ally to revive,,,Ally Name,Price,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,値段,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleCallReserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an ally to recall,,,Ally Name,Interaction,Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼び戻す仲間の選択,,,仲間の名前,アクション,クラス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,Ally Name,Interaction,Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,仲間の名前,アクション,情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,Ally Name,Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,,仲間の名前,ノート</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListPeopleBed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wBGMLot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a song,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">音楽の選択,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wPlaylist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Playlist,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在のプレイリスト,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wPlaylist2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Songs in memory,,,Song Name,Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">記憶の中の曲,,,曲名,アクション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wTravel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a fast travel destination,,,Destination Name,Days,Req Ration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファストトラベル目的地の選択,,,目的地の名前,経過日,必要旅糧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayLuck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タラバガニ,クロマグロ,イセエビ,ハマグリ,ウニ,ナマコ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayLuck2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mew mew mew!,Mew mew!,Mewew.,Boring.,Beware!,(Pssst...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うみみゃぁあ！,うみゃあ！,うみみ,つまんない,気を付けてね！,（フシュー・・・）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daggerTalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release them...!,Our swords...!,My sword...!,My friend...,My soul...,My pride...,Please... the sword...,We have been waiting for so long...,My sword that was bound by him...,My sword that was stolen by him...,My sword...,The sword...,You...set my sword free...?,Who is it...?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解き放って…！,私たちの剣を…！,私の剣を…！,剣を…,私の友を…,私の魂を…,私の誇りを…,頼む…剣を…,この時をずっと待っていた…,奴に囚われた私の剣を…,奴に奪われた私の剣を…,剣を…,解放…してくれるのか…？,誰だ…？,13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stupid,lame,cool,madam's favorite,bewitched,maniac,esteemed,magnificent,royal,masterpiece,heavenly,godly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愚かな,みすぼらしい,気になる,いい感じの,マダム殺しの,マニア向けの,尊い,凄く豪華な,王家御用達の,芸術的な,神々しい,世界最高の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancientbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voynich Manuscript,Dhol Chants,Ponape Scripture,Revelations of Glaaki,G'harne Fragments,Liber Damnatus,Book of Dzyan,Book of Eibon,Grand Grimoire,Celaeno Fragments,Necronomicon,The R'lyeh Text,Eltdown Shards,The Golden Bough,Apocalypse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ヴォイニッチ写本,ドール賛歌,ポナペ教教典,グラーキ黙示録,グ＝ハーン断章,断罪の書,ドジアンの書,エイボンの書,大いなる教書,セラエノ断章,ネクロノミコン,ルルイエ異本,エルトダウン・シャールズ,金枝篇,終焉の書</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is a waste of time.,Almost everyone ignores you.,You need to practice lot more.,You finish playing.,Not good.,People seem to like your performance.,Your performance is successful.,Wonderful!,Great performance.,A Legendary stage!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まるで駄目だ…,不評だった…,もっと練習しなくては…,演奏を終えた。,いまいちだ。,手ごたえがあった。,納得できる演奏ができた。,大盛況だ！,素晴らしい！,歴史に残る名演だ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mighty,Weakened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">剛力,衰弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortified,Fragile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">堅牢,脆弱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_DEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile,Clumsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巧手,拙劣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_PER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keen Sense,Dull Sense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鋭敏,鈍化</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_LER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlightened,Hindered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学力向上,学習困難</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_WIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unyielding,Subdued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不屈,屈服</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_MAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplified Magic,Drained Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔力増幅,魔力減少</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_CHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheerful,Gloom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陽気,陰気</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_LUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky,Jinxed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィーバー,ジンクス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buff_SPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haste,Slow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加速,鈍足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crude,normal,good,miracle,godly,special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粗悪,普通,高品質,奇跡,神器,特別製</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarnished,Common Quality,Fair Quality,Fine Quality,Premium Quality,Royal Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">粗悪品,普通の出来,まあまあの出来,良い出来,高級品,極上品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,quality,pure,fabled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,上質な,純粋な,幻の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality_fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,lively ,fabled ,legendary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,ぴちぴちの,幻の,伝説の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work_lv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,Amateur,Novice,Apprentice,Journeyman,Expert,Adept,Master,Grandmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,へっぽこ,初心者,見習い,職人,専門家,熟練者,達人,巨匠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest,Low,Normal,High,Highest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最低,低い,普通,高い,最高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野原の一夜,野原の一夜 (冬)(テスト),洞窟で (テスト)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exhint_AM_Terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extrahint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant Height: &lt;b&gt;Shift + Click&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一括変更:  &lt;b&gt;Shift + クリック&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guild_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novice,Apprentice,Journeyman,Adept,Expert,Master,Grandmaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ノービス,アプレンティス,ジャーニーマン,アデプト,エキスパート,マスター,グランドマスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plant_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extremely mini ,small ,handy ,rather big ,huge ,very huge ,monstrous-size ,bigger than a man ,legendary-size ,heavier than an elephant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">超ミニに育った,小振りに育った,手ごろに育った,やや大きく育った,どでかく育った,かなり巨大に育った,化け物サイズに育った,人より大きく育った,伝説的サイズに育った,象より重く育った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th,st,nd,rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newly grown,Slightly fluffy,Almost fluffy,Fluffy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生えたて,少しもこもこ,もこもこ,ふさもこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search_words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bill,tax,trainer,guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">請求書,納税箱,トレイナー,ガード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fortuneroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lose,3rd Prize,2nd Prize,1st Prize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ハズレ,3等,2等,1等</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novice Adventurer,Adventurer,Veteran Adventurer,Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">駆け出し冒険者,冒険者,熟練冒険者,カスタム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pp_titles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legacy Adventurer,Novice Adventurer,Adventurer,Veteran Adventurer,Legendary Adventurer,Mythical Adventurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レガシー冒険者,駆け出し冒険者,冒険者,熟練冒険者,伝説の冒険者,神話の冒険者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ba～rrel♪,Barrel!,Barre~l!,Barrel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">た～る♪,たーる！,たーるっ,たる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.27 fix 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.123</t>
+    <t xml:space="preserve">EA 23.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.145</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.67</t>
@@ -1043,7 +1076,7 @@
     <t xml:space="preserve">EA 23.68</t>
   </si>
   <si>
-    <t xml:space="preserve">Beta 22.63</t>
+    <t xml:space="preserve">EA 23.146</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.62</t>
@@ -1322,7 +1355,7 @@
     <t xml:space="preserve">位,位,位,位</t>
   </si>
   <si>
-    <t xml:space="preserve">刚长出来,较为蓬松,蓬松,蓬松厚实</t>
+    <t xml:space="preserve">刚长出来,较为蓬松,蓬松,蓬松厚实,*蓬松厚实*</t>
   </si>
   <si>
     <t xml:space="preserve">账单,纳税箱,训练师,守卫</t>
@@ -1439,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1452,11 +1485,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1470,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
@@ -1488,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
@@ -1506,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
@@ -1524,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
@@ -1542,11 +1575,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1560,11 +1593,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1578,11 +1611,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1596,31 +1629,31 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13"/>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1634,33 +1667,31 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>352</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1674,13 +1705,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1694,13 +1725,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1714,13 +1745,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1734,13 +1765,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1754,13 +1785,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1774,13 +1805,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1794,13 +1825,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1814,13 +1845,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1834,13 +1865,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1854,13 +1885,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1874,13 +1905,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1894,13 +1925,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1914,13 +1945,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1934,13 +1965,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1954,13 +1985,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1974,13 +2005,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1994,13 +2025,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -2014,13 +2045,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2034,13 +2065,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2054,13 +2085,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2074,13 +2105,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2094,13 +2125,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2114,11 +2145,13 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C38"/>
+        <v>336</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
       <c r="D38" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2132,11 +2165,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2150,11 +2183,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2168,11 +2201,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2186,11 +2219,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2204,537 +2237,531 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>389</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
         <v>329</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>383</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>397</v>
+      </c>
+      <c r="E54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" t="s">
         <v>159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" t="s">
-        <v>389</v>
-      </c>
-      <c r="E54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>322</v>
-      </c>
-      <c r="C55" t="s">
-        <v>160</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C55"/>
       <c r="D55" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" t="s">
-        <v>160</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C56"/>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>400</v>
+      </c>
+      <c r="E57" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" t="s">
         <v>169</v>
-      </c>
-      <c r="B57" t="s">
-        <v>322</v>
-      </c>
-      <c r="C57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" t="s">
-        <v>392</v>
-      </c>
-      <c r="E57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" t="s">
+        <v>401</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
         <v>172</v>
-      </c>
-      <c r="B58" t="s">
-        <v>333</v>
-      </c>
-      <c r="C58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" t="s">
-        <v>393</v>
-      </c>
-      <c r="E58" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
+        <v>402</v>
+      </c>
+      <c r="E59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" t="s">
         <v>175</v>
-      </c>
-      <c r="B59" t="s">
-        <v>334</v>
-      </c>
-      <c r="C59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" t="s">
-        <v>394</v>
-      </c>
-      <c r="E59" t="s">
-        <v>176</v>
-      </c>
-      <c r="F59" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>403</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
         <v>178</v>
-      </c>
-      <c r="B60" t="s">
-        <v>322</v>
-      </c>
-      <c r="C60" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" t="s">
-        <v>395</v>
-      </c>
-      <c r="E60" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s">
         <v>181</v>
-      </c>
-      <c r="B61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" t="s">
-        <v>396</v>
-      </c>
-      <c r="E61" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>405</v>
+      </c>
+      <c r="E62" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" t="s">
         <v>184</v>
-      </c>
-      <c r="B62" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E62" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" t="s">
         <v>187</v>
-      </c>
-      <c r="B63" t="s">
-        <v>322</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>398</v>
-      </c>
-      <c r="E63" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
+        <v>407</v>
+      </c>
+      <c r="E64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" t="s">
         <v>190</v>
-      </c>
-      <c r="B64" t="s">
-        <v>336</v>
-      </c>
-      <c r="C64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" t="s">
-        <v>399</v>
-      </c>
-      <c r="E64" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" t="s">
+        <v>408</v>
+      </c>
+      <c r="E65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" t="s">
         <v>193</v>
-      </c>
-      <c r="B65" t="s">
-        <v>337</v>
-      </c>
-      <c r="C65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" t="s">
-        <v>400</v>
-      </c>
-      <c r="E65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" t="s">
         <v>196</v>
-      </c>
-      <c r="B66" t="s">
-        <v>327</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" t="s">
-        <v>401</v>
-      </c>
-      <c r="E66" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>347</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>410</v>
+      </c>
+      <c r="E67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
         <v>199</v>
-      </c>
-      <c r="B67" t="s">
-        <v>327</v>
-      </c>
-      <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" t="s">
-        <v>402</v>
-      </c>
-      <c r="E67" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
         <v>202</v>
-      </c>
-      <c r="B68" t="s">
-        <v>338</v>
-      </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" t="s">
-        <v>403</v>
-      </c>
-      <c r="E68" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" t="s">
+        <v>412</v>
+      </c>
+      <c r="E69" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" t="s">
         <v>205</v>
-      </c>
-      <c r="B69" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" t="s">
-        <v>404</v>
-      </c>
-      <c r="E69" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" t="s">
+        <v>413</v>
+      </c>
+      <c r="E70" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" t="s">
         <v>208</v>
-      </c>
-      <c r="B70" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" t="s">
-        <v>404</v>
-      </c>
-      <c r="E70" t="s">
-        <v>206</v>
-      </c>
-      <c r="F70" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="71">
@@ -2742,13 +2769,13 @@
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -2762,13 +2789,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2782,635 +2809,695 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F73" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" t="s">
+        <v>416</v>
+      </c>
+      <c r="E74" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" t="s">
         <v>218</v>
-      </c>
-      <c r="B74" t="s">
-        <v>322</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" t="s">
-        <v>408</v>
-      </c>
-      <c r="E74" t="s">
-        <v>219</v>
-      </c>
-      <c r="F74" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" t="s">
+        <v>417</v>
+      </c>
+      <c r="E75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" t="s">
         <v>221</v>
-      </c>
-      <c r="B75" t="s">
-        <v>334</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75" t="s">
-        <v>409</v>
-      </c>
-      <c r="E75" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" t="s">
         <v>224</v>
-      </c>
-      <c r="B76" t="s">
-        <v>324</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76" t="s">
-        <v>410</v>
-      </c>
-      <c r="E76" t="s">
-        <v>225</v>
-      </c>
-      <c r="F76" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" t="s">
         <v>227</v>
-      </c>
-      <c r="B77" t="s">
-        <v>326</v>
-      </c>
-      <c r="C77"/>
-      <c r="D77" t="s">
-        <v>411</v>
-      </c>
-      <c r="E77" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F80" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="E84" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>254</v>
       </c>
       <c r="E86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E89" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F89" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F90" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E91" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F96" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F97" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98" t="s">
+        <v>439</v>
+      </c>
+      <c r="E98" t="s">
+        <v>289</v>
+      </c>
+      <c r="F98" t="s">
         <v>290</v>
-      </c>
-      <c r="B98" t="s">
-        <v>336</v>
-      </c>
-      <c r="C98" t="s">
-        <v>291</v>
-      </c>
-      <c r="D98" t="s">
-        <v>431</v>
-      </c>
-      <c r="E98" t="s">
-        <v>292</v>
-      </c>
-      <c r="F98" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E99" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F99" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E100" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>347</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" t="s">
+        <v>442</v>
+      </c>
+      <c r="E101" t="s">
+        <v>299</v>
+      </c>
+      <c r="F101" t="s">
         <v>300</v>
-      </c>
-      <c r="B101" t="s">
-        <v>331</v>
-      </c>
-      <c r="C101"/>
-      <c r="D101" t="s">
-        <v>434</v>
-      </c>
-      <c r="E101" t="s">
-        <v>301</v>
-      </c>
-      <c r="F101" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
         <v>342</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E104" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E106" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F106" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E107" t="s">
+        <v>317</v>
+      </c>
+      <c r="F107" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
         <v>319</v>
       </c>
-      <c r="F107" t="s">
+      <c r="B108" t="s">
+        <v>355</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108" t="s">
+        <v>449</v>
+      </c>
+      <c r="E108" t="s">
         <v>320</v>
+      </c>
+      <c r="F108" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109" t="s">
+        <v>450</v>
+      </c>
+      <c r="E109" t="s">
+        <v>323</v>
+      </c>
+      <c r="F109" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110" t="s">
+        <v>451</v>
+      </c>
+      <c r="E110" t="s">
+        <v>326</v>
+      </c>
+      <c r="F110" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/List.xlsx
+++ b/Original/CN/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="460">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">affinity</t>
   </si>
   <si>
-    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*</t>
+    <t xml:space="preserve">Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*,*Love Love Love*,♥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*,*Love Love Love*,♥</t>
   </si>
   <si>
     <t xml:space="preserve">randomPotion</t>
@@ -452,6 +452,24 @@
     <t xml:space="preserve">部屋</t>
   </si>
   <si>
+    <t xml:space="preserve">onii2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onee2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉</t>
+  </si>
+  <si>
     <t xml:space="preserve">onii</t>
   </si>
   <si>
@@ -902,10 +920,10 @@
     <t xml:space="preserve">startMode</t>
   </si>
   <si>
-    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter)(Test),In a cave (Test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野原の一夜,野原の一夜 (冬)(テスト),洞窟で (テスト)</t>
+    <t xml:space="preserve">A night in the Meadow,A night in the Meadow (Winter),In a cave,One Block (Test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野原の一夜,野原の一夜 (冬),洞窟で,ワンブロック（テスト）</t>
   </si>
   <si>
     <t xml:space="preserve">exhint_AM_Terrain</t>
@@ -1016,7 +1034,7 @@
     <t xml:space="preserve">Alpha 14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.70</t>
+    <t xml:space="preserve">EA 23.183</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
@@ -1037,6 +1055,9 @@
     <t xml:space="preserve">EA 23.145</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.155</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.67</t>
   </si>
   <si>
@@ -1073,7 +1094,7 @@
     <t xml:space="preserve">EA 23.126</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.68</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.146</t>
@@ -1103,7 +1124,7 @@
     <t xml:space="preserve">…,呜喵喵,今天可睡不着了,呜呜呜</t>
   </si>
   <si>
-    <t xml:space="preserve">天敌,讨厌,冷淡,普通,有好感,朋友,信赖,亲密,溺爱,*Love*,*Love Love*</t>
+    <t xml:space="preserve">天敌,讨厌,冷淡,普通,有好感,朋友,信赖,亲密,溺爱,*Love*,*Love Love*,*Love Love Love*,♥</t>
   </si>
   <si>
     <t xml:space="preserve">斑驳的液体,混浊的液体,透明的液体,肮脏的液体,稀薄的液体,粘稠的液体,起泡的液体</t>
@@ -1196,6 +1217,12 @@
     <t xml:space="preserve">房屋</t>
   </si>
   <si>
+    <t xml:space="preserve">哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姐</t>
+  </si>
+  <si>
     <t xml:space="preserve">哥哥,哥哥♪,哥哥—,哥哥！,哥哥？,哥哥！？</t>
   </si>
   <si>
@@ -1307,9 +1334,6 @@
     <t xml:space="preserve">擅长学习,学习困难</t>
   </si>
   <si>
-    <t xml:space="preserve">不屈,顺从</t>
-  </si>
-  <si>
     <t xml:space="preserve">魔力增幅,魔力减少</t>
   </si>
   <si>
@@ -1340,7 +1364,7 @@
     <t xml:space="preserve">非常低,低,普通,高,非常高</t>
   </si>
   <si>
-    <t xml:space="preserve">野外夜晚,野外夜晚 (冬)(测试),洞穴 (测试)</t>
+    <t xml:space="preserve">野外的一夜,野外的一夜 (冬),在洞穴,一格方块（测试）</t>
   </si>
   <si>
     <t xml:space="preserve">批量变更:  &lt;b&gt;Shift + 点击&lt;/b&gt;</t>
@@ -1472,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1485,11 +1509,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1503,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
@@ -1521,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
@@ -1539,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
@@ -1557,7 +1581,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
@@ -1575,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
@@ -1593,11 +1617,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1611,11 +1635,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1629,11 +1653,11 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1647,13 +1671,13 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1667,11 +1691,11 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1685,13 +1709,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1705,13 +1729,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1725,13 +1749,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1745,13 +1769,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1765,13 +1789,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1785,13 +1809,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1805,13 +1829,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1825,13 +1849,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1845,13 +1869,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1865,13 +1889,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1885,13 +1909,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1905,13 +1929,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1925,13 +1949,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1945,13 +1969,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1965,13 +1989,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1985,13 +2009,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -2005,13 +2029,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -2025,13 +2049,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -2045,13 +2069,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2065,13 +2089,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2085,13 +2109,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2105,13 +2129,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2125,13 +2149,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2145,13 +2169,13 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2165,11 +2189,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2183,11 +2207,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2201,11 +2225,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2219,11 +2243,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2237,11 +2261,11 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
         <v>124</v>
@@ -2255,11 +2279,11 @@
         <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
         <v>128</v>
@@ -2273,7 +2297,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
@@ -2291,11 +2315,11 @@
         <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E46" t="s">
         <v>134</v>
@@ -2309,7 +2333,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
@@ -2327,7 +2351,7 @@
         <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
@@ -2345,11 +2369,11 @@
         <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
@@ -2363,11 +2387,11 @@
         <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E50" t="s">
         <v>146</v>
@@ -2381,11 +2405,11 @@
         <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E51" t="s">
         <v>149</v>
@@ -2399,11 +2423,11 @@
         <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E52" t="s">
         <v>152</v>
@@ -2417,11 +2441,11 @@
         <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
@@ -2435,11 +2459,11 @@
         <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E54" t="s">
         <v>158</v>
@@ -2453,11 +2477,11 @@
         <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E55" t="s">
         <v>161</v>
@@ -2471,11 +2495,11 @@
         <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E56" t="s">
         <v>164</v>
@@ -2489,53 +2513,49 @@
         <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
-      </c>
-      <c r="C57" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" t="s">
         <v>167</v>
       </c>
-      <c r="D57" t="s">
-        <v>400</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>168</v>
-      </c>
-      <c r="F57" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>408</v>
+      </c>
+      <c r="E58" t="s">
         <v>170</v>
       </c>
-      <c r="B58" t="s">
-        <v>329</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" t="s">
-        <v>401</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>171</v>
-      </c>
-      <c r="F58" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>335</v>
+      </c>
+      <c r="C59" t="s">
         <v>173</v>
       </c>
-      <c r="B59" t="s">
-        <v>329</v>
-      </c>
-      <c r="C59" t="s">
-        <v>167</v>
-      </c>
       <c r="D59" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -2549,13 +2569,13 @@
         <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -2569,13 +2589,13 @@
         <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -2589,13 +2609,13 @@
         <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -2609,13 +2629,13 @@
         <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -2629,13 +2649,13 @@
         <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -2649,13 +2669,13 @@
         <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -2669,13 +2689,13 @@
         <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -2689,13 +2709,13 @@
         <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -2709,13 +2729,13 @@
         <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -2729,13 +2749,13 @@
         <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -2749,13 +2769,13 @@
         <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E70" t="s">
         <v>207</v>
@@ -2769,13 +2789,13 @@
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -2789,13 +2809,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2809,59 +2829,59 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
+        <v>357</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" t="s">
+        <v>424</v>
+      </c>
+      <c r="E75" t="s">
         <v>219</v>
       </c>
-      <c r="B75" t="s">
-        <v>335</v>
-      </c>
-      <c r="C75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" t="s">
-        <v>417</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>220</v>
-      </c>
-      <c r="F75" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="76">
@@ -2869,13 +2889,13 @@
         <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E76" t="s">
         <v>223</v>
@@ -2889,13 +2909,13 @@
         <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D77" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E77" t="s">
         <v>226</v>
@@ -2909,11 +2929,13 @@
         <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78"/>
+        <v>341</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
       <c r="D78" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E78" t="s">
         <v>229</v>
@@ -2927,11 +2949,13 @@
         <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>332</v>
-      </c>
-      <c r="C79"/>
+        <v>335</v>
+      </c>
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
       <c r="D79" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E79" t="s">
         <v>232</v>
@@ -2945,11 +2969,11 @@
         <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E80" t="s">
         <v>235</v>
@@ -2963,11 +2987,11 @@
         <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E81" t="s">
         <v>238</v>
@@ -2981,11 +3005,11 @@
         <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E82" t="s">
         <v>241</v>
@@ -2999,11 +3023,11 @@
         <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E83" t="s">
         <v>244</v>
@@ -3017,11 +3041,11 @@
         <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E84" t="s">
         <v>247</v>
@@ -3035,11 +3059,11 @@
         <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E85" t="s">
         <v>250</v>
@@ -3053,11 +3077,11 @@
         <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>254</v>
+        <v>435</v>
       </c>
       <c r="E86" t="s">
         <v>253</v>
@@ -3071,11 +3095,11 @@
         <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E87" t="s">
         <v>256</v>
@@ -3089,11 +3113,11 @@
         <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>429</v>
+        <v>260</v>
       </c>
       <c r="E88" t="s">
         <v>259</v>
@@ -3107,11 +3131,11 @@
         <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E89" t="s">
         <v>262</v>
@@ -3125,11 +3149,11 @@
         <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E90" t="s">
         <v>265</v>
@@ -3143,11 +3167,11 @@
         <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="E91" t="s">
         <v>268</v>
@@ -3161,11 +3185,11 @@
         <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E92" t="s">
         <v>271</v>
@@ -3179,11 +3203,11 @@
         <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E93" t="s">
         <v>274</v>
@@ -3197,11 +3221,11 @@
         <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E94" t="s">
         <v>277</v>
@@ -3215,11 +3239,11 @@
         <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E95" t="s">
         <v>280</v>
@@ -3233,11 +3257,11 @@
         <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E96" t="s">
         <v>283</v>
@@ -3251,11 +3275,11 @@
         <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E97" t="s">
         <v>286</v>
@@ -3269,11 +3293,11 @@
         <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
         <v>289</v>
@@ -3287,11 +3311,11 @@
         <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E99" t="s">
         <v>292</v>
@@ -3309,7 +3333,7 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E100" t="s">
         <v>295</v>
@@ -3323,49 +3347,49 @@
         <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>347</v>
-      </c>
-      <c r="C101" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101" t="s">
+        <v>448</v>
+      </c>
+      <c r="E101" t="s">
         <v>298</v>
       </c>
-      <c r="D101" t="s">
-        <v>442</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>299</v>
-      </c>
-      <c r="F101" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E102" t="s">
+        <v>301</v>
+      </c>
+      <c r="F102" t="s">
         <v>302</v>
-      </c>
-      <c r="F102" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>354</v>
+      </c>
+      <c r="C103" t="s">
         <v>304</v>
       </c>
-      <c r="B103" t="s">
-        <v>342</v>
-      </c>
-      <c r="C103"/>
       <c r="D103" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E103" t="s">
         <v>305</v>
@@ -3379,11 +3403,11 @@
         <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E104" t="s">
         <v>308</v>
@@ -3397,11 +3421,11 @@
         <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E105" t="s">
         <v>311</v>
@@ -3415,11 +3439,11 @@
         <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E106" t="s">
         <v>314</v>
@@ -3433,11 +3457,11 @@
         <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E107" t="s">
         <v>317</v>
@@ -3451,11 +3475,11 @@
         <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E108" t="s">
         <v>320</v>
@@ -3469,11 +3493,11 @@
         <v>322</v>
       </c>
       <c r="B109" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E109" t="s">
         <v>323</v>
@@ -3487,17 +3511,53 @@
         <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C110"/>
       <c r="D110" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E110" t="s">
         <v>326</v>
       </c>
       <c r="F110" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" t="s">
+        <v>362</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" t="s">
+        <v>329</v>
+      </c>
+      <c r="F111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112" t="s">
+        <v>459</v>
+      </c>
+      <c r="E112" t="s">
+        <v>332</v>
+      </c>
+      <c r="F112" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/List.xlsx
+++ b/Original/CN/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/Original/CN/Game/List.xlsx
+++ b/Original/CN/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
